--- a/biology/Botanique/Rubus_lejeunei/Rubus_lejeunei.xlsx
+++ b/biology/Botanique/Rubus_lejeunei/Rubus_lejeunei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus lejeunei est une espèce de plantes à fleurs du genre Rubus (les ronces) et de la famille des Rosaceae. Son nom botanique a été donné en hommage au botaniste belge Alexandre Louis Simon Lejeune (1779-1858) qui a découvert la plante.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les turions sont obtusément à acérément anguleux, à faces planes ou un peu concaves, à poils simples denses, courts, à glandes portées par un stipe et micro-aiguillons nombreux, reliés aux plus gros aiguillons par des aiguillons de tailles intermédiaires ; les plus gros aiguillons sont nombreux, jaunâtres, assez longs, minces, étalés ou légèrement inclinés, droits, à base large et aplatie.
 Les stipules sont filiformes, glanduleuses.
@@ -546,7 +560,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre en bordure de chemins et en lisières de forêts, sur sol assez riche.
 </t>
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition est mal connue. En 1913, le rubologue français Henri Sudre a signalé cette espèce dans le nord de la France (départements de l'Aisne et de l'Oise), en Belgique et dans le sud et l'ouest de l'Allemagne. Mais en 1995, la monographie du spécialiste allemand Heinrich E. Weber ne fait pas mention de cette espèce pour l'Allemagne. Comme toutes les données anciennes, les écrits de Henri Sudre sont donc à considérer avec précaution et la seule localité fiable semble être la localité type (où a été récolté l'échantillon d'herbier type), qui se situe dans les environs de Malmédy, en Belgique.
 </t>
@@ -608,7 +626,9 @@
           <t>Propagation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se multiplie par apomixie et par marcottage.
 </t>
@@ -639,7 +659,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir ronces.
 </t>
@@ -670,7 +692,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus promachonicus Beek
 Le rejet de ce nom au profit de Rubus lejeunei Weihe se justifie par les éléments suivants.
@@ -706,7 +730,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Rubus adornatus possède une pubescence plus longue et plus dense, des glandes stipitées plus courtes et des calices dressés et appliqués contre les fruits.
 Rubus atrovirens montre des folioles terminales plus poilues, ovales-arrondies, à dents grossières, ainsi que des styles rouges.
